--- a/answers/answer2.xlsx
+++ b/answers/answer2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,126 +455,6 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4E834E81</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>CF304D24</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>78FFAD0C</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>86083278</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>43B81579</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>9AD15F7E</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>09C37FB8</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>98B84035</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3329175B</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ADE40E7F</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>E54B5C3A</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>5310B9D7</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>496</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
